--- a/SensitivityAnalisys/CF_G_2023_3_FIIUUP.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_3_FIIUUP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86B889-29BB-4BB4-81FE-75A0DAE3C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676449D-14AD-4DE9-88E2-478DB8515C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3645" windowWidth="25305" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54300" yWindow="0" windowWidth="25800" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Values11</t>
   </si>
   <si>
-    <t>GIC1</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>FIIUUP10pct</t>
+  </si>
+  <si>
+    <t>GIC2</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -616,40 +616,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.927</c:v>
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.675000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.207500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.334299999999999</c:v>
+                  <c:v>44.286750000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.200870000000002</c:v>
+                  <c:v>39.858075000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.480783000000002</c:v>
+                  <c:v>35.872267500000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.132704700000001</c:v>
+                  <c:v>32.285040750000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.119434230000003</c:v>
+                  <c:v>29.056536675000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.407490807000002</c:v>
+                  <c:v>26.150883007500006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.966741726300004</c:v>
+                  <c:v>23.535794706750007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +670,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -804,7 +804,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -938,7 +938,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -1018,40 +1018,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-54.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-49.576860000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-45.065365739999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-40.964417457660005</c:v>
+                  <c:v>-49.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-44.619173999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.558829166000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-36.867975711894005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37.236655469012945</c:v>
+                  <c:v>-33.51298992211165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.848119821332773</c:v>
+                  <c:v>-30.463307839199491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-30.767940917591492</c:v>
+                  <c:v>-27.691146825832334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-27.968058294090664</c:v>
+                  <c:v>-25.171252464681594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25.422964989328413</c:v>
+                  <c:v>-22.880668490395571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-23.109475175299526</c:v>
+                  <c:v>-20.798527657769576</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21.006512934347271</c:v>
+                  <c:v>-18.905861640912544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1072,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -1203,7 +1203,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -1286,34 +1286,34 @@
                   <c:v>-2.7269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4788430000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.253268287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728830003</c:v>
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6924059910666385</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795746</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045332</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664206</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173634</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,7 +1334,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -1416,40 +1416,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.6875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64.303124999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61.087968749999995</c:v>
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.394999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.875249999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.53148749999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.03357031249999</c:v>
+                  <c:v>60.354913124999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.131891796874989</c:v>
+                  <c:v>57.337167468749989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.375297207031238</c:v>
+                  <c:v>54.470309095312487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.756532346679677</c:v>
+                  <c:v>51.746793640546862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.26870572934569</c:v>
+                  <c:v>49.159453958519514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.905270442878404</c:v>
+                  <c:v>46.701481260593539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.660006920734482</c:v>
+                  <c:v>44.366407197563859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,7 +1470,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -1552,40 +1552,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.2</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,7 +1606,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -1688,40 +1688,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.35</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,7 +1742,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -1824,40 +1824,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-62</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-56.357999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-51.229422000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-46.567544598000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-42.329898039582012</c:v>
+                  <c:v>-54.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-49.576859999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45.065365740000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40.964417457660005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38.477877317980045</c:v>
+                  <c:v>-37.236655469012945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-34.976390482043868</c:v>
+                  <c:v>-33.848119821332766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-31.793538948177876</c:v>
+                  <c:v>-30.767940917591481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28.900326903893685</c:v>
+                  <c:v>-27.96805829409066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-26.270397155639362</c:v>
+                  <c:v>-25.422964989328413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-23.879791014476176</c:v>
+                  <c:v>-23.109475175299529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21.706730032158845</c:v>
+                  <c:v>-21.006512934347271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,7 +1878,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -2011,7 +2011,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -2090,40 +2090,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.2</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9087999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.6440992000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4034861728000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.1847689310752001</c:v>
+                  <c:v>-2.7269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9859549583473566</c:v>
+                  <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.8052330571377475</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.6409568489382127</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.4916297756848351</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.355891466097515</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2325053426826411</c:v>
+                  <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1203473564985209</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,7 +2144,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -2233,34 +2233,34 @@
                   <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.809999999999988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.019499999999979</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.418524999999974</c:v>
+                  <c:v>75.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.019499999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.418524999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.997598749999966</c:v>
+                  <c:v>64.997598749999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.747718812499969</c:v>
+                  <c:v>61.74771881249999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.660332871874971</c:v>
+                  <c:v>58.660332871874992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.727316228281225</c:v>
+                  <c:v>55.727316228281246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.94095041686716</c:v>
+                  <c:v>52.940950416867175</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.293902896023802</c:v>
+                  <c:v>50.293902896023823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.779207751222607</c:v>
+                  <c:v>47.779207751222629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,7 +2281,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -2418,7 +2418,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -2555,7 +2555,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -2644,34 +2644,34 @@
                   <c:v>-61.9938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-56.352364200000011</c:v>
+                  <c:v>-56.352364199999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-51.224299057800003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-46.56288784354021</c:v>
+                  <c:v>-46.562887843540203</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-42.325665049778046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-38.474029530248252</c:v>
+                  <c:v>-38.474029530248238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-34.972892842995655</c:v>
+                  <c:v>-34.972892842995648</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.790359594283046</c:v>
+                  <c:v>-31.79035959428305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-28.897436871203293</c:v>
+                  <c:v>-28.897436871203297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-26.267770115923788</c:v>
+                  <c:v>-26.267770115923799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-23.877403035374723</c:v>
+                  <c:v>-23.87740303537473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,7 +2692,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -2826,7 +2826,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -2912,34 +2912,34 @@
                   <c:v>-3.0905999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8093554000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.5537040586000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.3213169892674008</c:v>
+                  <c:v>-2.8093553999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5537040585999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3213169892673995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.1100771432440673</c:v>
+                  <c:v>-2.1100771432440664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9180601232088574</c:v>
+                  <c:v>-1.9180601232088563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7435166519968517</c:v>
+                  <c:v>-1.7435166519968504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.584856636665138</c:v>
+                  <c:v>-1.5848566366651371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4406346827286103</c:v>
+                  <c:v>-1.4406346827286098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3095369266003067</c:v>
+                  <c:v>-1.3095369266003063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1903690662796789</c:v>
+                  <c:v>-1.1903690662796782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +2960,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -3042,40 +3042,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.809999999999988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.019499999999979</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.418524999999974</c:v>
+                  <c:v>84.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.322500000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.306374999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.491056249999986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.997598749999966</c:v>
+                  <c:v>68.8665034375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.747718812499969</c:v>
+                  <c:v>65.423178265624998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.660332871874971</c:v>
+                  <c:v>62.15201935234375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.727316228281225</c:v>
+                  <c:v>59.044418384726569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.94095041686716</c:v>
+                  <c:v>56.09219746549023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.293902896023802</c:v>
+                  <c:v>53.287587592215729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.779207751222607</c:v>
+                  <c:v>50.623208212604936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,7 +3096,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -3232,7 +3232,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -3368,7 +3368,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -3456,22 +3456,22 @@
                   <c:v>-65.538899999999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-59.574860099999995</c:v>
+                  <c:v>-59.574860099999981</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-54.153547830899988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-49.225574978288094</c:v>
+                  <c:v>-49.225574978288087</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-44.746047655263872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-40.674157318634869</c:v>
+                  <c:v>-40.674157318634855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36.972809002639089</c:v>
+                  <c:v>-36.972809002639082</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-33.608283383398927</c:v>
@@ -3480,10 +3480,10 @@
                   <c:v>-30.549929595509631</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-27.769886002318248</c:v>
+                  <c:v>-27.769886002318255</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.242826376107285</c:v>
+                  <c:v>-25.242826376107288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3504,7 +3504,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -3637,7 +3637,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -3722,34 +3722,34 @@
                   <c:v>-3.0905999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8093554000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.5537040586000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.3213169892674008</c:v>
+                  <c:v>-2.8093553999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5537040585999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3213169892673995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.1100771432440673</c:v>
+                  <c:v>-2.1100771432440664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9180601232088577</c:v>
+                  <c:v>-1.9180601232088563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7435166519968519</c:v>
+                  <c:v>-1.7435166519968504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5848566366651382</c:v>
+                  <c:v>-1.5848566366651371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4406346827286105</c:v>
+                  <c:v>-1.4406346827286098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.309536926600307</c:v>
+                  <c:v>-1.3095369266003063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1903690662796791</c:v>
+                  <c:v>-1.1903690662796782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,7 +3770,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -3856,7 +3856,7 @@
                   <c:v>92.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.685000000000002</c:v>
+                  <c:v>87.684999999999988</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>83.300749999999994</c:v>
@@ -3865,13 +3865,13 @@
                   <c:v>79.135712499999983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.178926874999988</c:v>
+                  <c:v>75.178926874999974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.419980531249976</c:v>
+                  <c:v>71.41998053124999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.848981504687472</c:v>
+                  <c:v>67.848981504687487</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>64.456532429453105</c:v>
@@ -3880,13 +3880,13 @@
                   <c:v>61.233705807980456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.17202051758143</c:v>
+                  <c:v>58.172020517581423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.263419491702351</c:v>
+                  <c:v>55.263419491702365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.500248517117228</c:v>
+                  <c:v>52.500248517117242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,7 +3907,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -4044,7 +4044,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -4181,7 +4181,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -4270,7 +4270,7 @@
                   <c:v>-65.538899999999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-59.574860099999995</c:v>
+                  <c:v>-59.574860099999981</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-54.153547830899988</c:v>
@@ -4279,25 +4279,25 @@
                   <c:v>-49.225574978288087</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-44.746047655263865</c:v>
+                  <c:v>-44.746047655263872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-40.674157318634862</c:v>
+                  <c:v>-40.674157318634855</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-36.972809002639082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-33.60828338339892</c:v>
+                  <c:v>-33.608283383398927</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-30.549929595509628</c:v>
+                  <c:v>-30.549929595509635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-27.769886002318245</c:v>
+                  <c:v>-27.769886002318259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.242826376107281</c:v>
+                  <c:v>-25.242826376107292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4318,7 +4318,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -4452,7 +4452,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -4538,34 +4538,34 @@
                   <c:v>-3.0905999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8093554000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.5537040586000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.3213169892674008</c:v>
+                  <c:v>-2.8093553999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5537040585999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3213169892673995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.1100771432440673</c:v>
+                  <c:v>-2.1100771432440664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9180601232088577</c:v>
+                  <c:v>-1.9180601232088563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7435166519968519</c:v>
+                  <c:v>-1.7435166519968504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5848566366651382</c:v>
+                  <c:v>-1.5848566366651371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4406346827286105</c:v>
+                  <c:v>-1.4406346827286098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.309536926600307</c:v>
+                  <c:v>-1.3095369266003063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1903690662796791</c:v>
+                  <c:v>-1.1903690662796782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5714,7 +5714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF902ED-C214-4F96-9503-445B7BE7E04C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -5750,7 +5750,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5773,8 +5773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8FC3-4B20-424B-A44D-77DCF1F6F0A1}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,83 +5841,72 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1">
-        <f>+F2*0.9</f>
-        <v>63</v>
+        <v>67.5</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:Q2" si="0">+G2*0.9</f>
-        <v>56.7</v>
+        <v>60.75</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>51.03</v>
+        <v>54.675000000000004</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>45.927</v>
+        <v>49.207500000000003</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>41.334299999999999</v>
+        <v>44.286750000000005</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" si="0"/>
-        <v>37.200870000000002</v>
+        <v>39.858075000000007</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>33.480783000000002</v>
+        <v>35.872267500000007</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>30.132704700000001</v>
+        <v>32.285040750000007</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>27.119434230000003</v>
+        <v>29.056536675000007</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>24.407490807000002</v>
+        <v>26.150883007500006</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" si="0"/>
-        <v>21.966741726300004</v>
+        <v>23.535794706750007</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="1">
         <v>-5</v>
@@ -5958,19 +5947,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>-1.24</v>
@@ -6011,1700 +6000,1601 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="1">
-        <v>-60</v>
+        <v>-54</v>
       </c>
       <c r="G5" s="1">
-        <f>+F5*1.01*G2/F2</f>
-        <v>-54.54</v>
+        <v>-49.085999999999999</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:Q5" si="1">+G5*1.01*H2/G2</f>
-        <v>-49.576860000000003</v>
+        <v>-44.619173999999994</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>-45.065365739999997</v>
+        <v>-40.558829166000002</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>-40.964417457660005</v>
+        <v>-36.867975711894005</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>-37.236655469012945</v>
+        <v>-33.51298992211165</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>-33.848119821332773</v>
+        <v>-30.463307839199491</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>-30.767940917591492</v>
+        <v>-27.691146825832334</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>-27.968058294090664</v>
+        <v>-25.171252464681594</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>-25.422964989328413</v>
+        <v>-22.880668490395571</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>-23.109475175299526</v>
+        <v>-20.798527657769576</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>-21.006512934347271</v>
+        <v>-18.905861640912544</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>-10</v>
       </c>
       <c r="G6" s="1">
-        <f>+F6*0.99</f>
         <v>-9.9</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:Q6" si="2">+G6*0.99</f>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="2"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="2"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>-3</v>
       </c>
       <c r="G7" s="1">
-        <f>+F7*G5/F5</f>
         <v>-2.7269999999999999</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:Q7" si="3">+G7*H5/G5</f>
-        <v>-2.4788430000000004</v>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.253268287</v>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.0482208728830003</v>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
         <v>-1.861832773450647</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.6924059910666385</v>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5383970458795746</v>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.3984029147045332</v>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.2711482494664206</v>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="3"/>
         <v>-1.1554737587649762</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.0503256467173634</v>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1">
-        <f>+F8*0.95</f>
-        <v>71.25</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:Q8" si="4">+G8*0.95</f>
-        <v>67.6875</v>
+        <v>70.394999999999996</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>64.303124999999994</v>
+        <v>66.875249999999994</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>61.087968749999995</v>
+        <v>63.53148749999999</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>58.03357031249999</v>
+        <v>60.354913124999989</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>55.131891796874989</v>
+        <v>57.337167468749989</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>52.375297207031238</v>
+        <v>54.470309095312487</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>49.756532346679677</v>
+        <v>51.746793640546862</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>47.26870572934569</v>
+        <v>49.159453958519514</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>44.905270442878404</v>
+        <v>46.701481260593539</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>42.660006920734482</v>
+        <v>44.366407197563859</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:Q9" si="5">+F9*G3/F3</f>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:Q10" si="6">+F10*G4/F4</f>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.35</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:Q11" si="7">+F11*G5/F5</f>
-        <v>-56.357999999999997</v>
+        <v>-54.54</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="7"/>
-        <v>-51.229422000000007</v>
+        <v>-49.576859999999996</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
-        <v>-46.567544598000005</v>
+        <v>-45.065365740000004</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="7"/>
-        <v>-42.329898039582012</v>
+        <v>-40.964417457660005</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="7"/>
-        <v>-38.477877317980045</v>
+        <v>-37.236655469012945</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="7"/>
-        <v>-34.976390482043868</v>
+        <v>-33.848119821332766</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="7"/>
-        <v>-31.793538948177876</v>
+        <v>-30.767940917591481</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="7"/>
-        <v>-28.900326903893685</v>
+        <v>-27.96805829409066</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="7"/>
-        <v>-26.270397155639362</v>
+        <v>-25.422964989328413</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="7"/>
-        <v>-23.879791014476176</v>
+        <v>-23.109475175299529</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="7"/>
-        <v>-21.706730032158845</v>
+        <v>-21.006512934347271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1">
         <v>-10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:Q12" si="8">+F12*G6/F6</f>
         <v>-9.9</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="8"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="8"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:Q13" si="9">+F13*G7/F7</f>
-        <v>-2.9087999999999998</v>
+        <v>-2.7269999999999999</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="9"/>
-        <v>-2.6440992000000003</v>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="9"/>
-        <v>-2.4034861728000001</v>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="9"/>
-        <v>-2.1847689310752001</v>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.9859549583473566</v>
+        <v>-1.861832773450647</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.8052330571377475</v>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.6409568489382127</v>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.4916297756848351</v>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.355891466097515</v>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.2325053426826411</v>
+        <v>-1.1554737587649762</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.1203473564985209</v>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>84</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:Q14" si="10">+F14*G8/F8</f>
+        <f t="shared" ref="G14:Q14" si="0">+F14*G8/F8</f>
         <v>79.8</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="10"/>
-        <v>75.809999999999988</v>
+        <f t="shared" si="0"/>
+        <v>75.81</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="10"/>
-        <v>72.019499999999979</v>
+        <f t="shared" si="0"/>
+        <v>72.019499999999994</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="10"/>
-        <v>68.418524999999974</v>
+        <f t="shared" si="0"/>
+        <v>68.418524999999988</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="10"/>
-        <v>64.997598749999966</v>
+        <f t="shared" si="0"/>
+        <v>64.997598749999995</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="10"/>
-        <v>61.747718812499969</v>
+        <f t="shared" si="0"/>
+        <v>61.74771881249999</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="10"/>
-        <v>58.660332871874971</v>
+        <f t="shared" si="0"/>
+        <v>58.660332871874992</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="10"/>
-        <v>55.727316228281225</v>
+        <f t="shared" si="0"/>
+        <v>55.727316228281246</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="10"/>
-        <v>52.94095041686716</v>
+        <f t="shared" si="0"/>
+        <v>52.940950416867175</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="10"/>
-        <v>50.293902896023802</v>
+        <f t="shared" si="0"/>
+        <v>50.293902896023823</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="10"/>
-        <v>47.779207751222607</v>
+        <f t="shared" si="0"/>
+        <v>47.779207751222629</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1">
         <v>-6</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:Q15" si="11">+F15*G9/F9</f>
+        <f t="shared" ref="G15:Q15" si="1">+F15*G9/F9</f>
         <v>-6</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1">
         <v>-1.47</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:Q16" si="12">+F16*G10/F10</f>
+        <f t="shared" ref="G16:Q16" si="2">+F16*G10/F10</f>
         <v>-1.47</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-1.47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1">
         <v>-68.2</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:Q17" si="13">+F17*G11/F11</f>
+        <f t="shared" ref="G17:Q17" si="3">+F17*G11/F11</f>
         <v>-61.9938</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="13"/>
-        <v>-56.352364200000011</v>
+        <f t="shared" si="3"/>
+        <v>-56.352364199999997</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>-51.224299057800003</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="13"/>
-        <v>-46.56288784354021</v>
+        <f t="shared" si="3"/>
+        <v>-46.562887843540203</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>-42.325665049778046</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="13"/>
-        <v>-38.474029530248252</v>
+        <f t="shared" si="3"/>
+        <v>-38.474029530248238</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="13"/>
-        <v>-34.972892842995655</v>
+        <f t="shared" si="3"/>
+        <v>-34.972892842995648</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="13"/>
-        <v>-31.790359594283046</v>
+        <f t="shared" si="3"/>
+        <v>-31.79035959428305</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="13"/>
-        <v>-28.897436871203293</v>
+        <f t="shared" si="3"/>
+        <v>-28.897436871203297</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="13"/>
-        <v>-26.267770115923788</v>
+        <f t="shared" si="3"/>
+        <v>-26.267770115923799</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="13"/>
-        <v>-23.877403035374723</v>
+        <f t="shared" si="3"/>
+        <v>-23.87740303537473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1">
         <v>-10</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18:Q18" si="14">+F18*G12/F12</f>
+        <f t="shared" ref="G18:Q18" si="4">+F18*G12/F12</f>
         <v>-9.9</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1">
         <v>-3.4</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:Q19" si="15">+F19*G13/F13</f>
+        <f t="shared" ref="G19:Q19" si="5">+F19*G13/F13</f>
         <v>-3.0905999999999998</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="15"/>
-        <v>-2.8093554000000007</v>
+        <f t="shared" si="5"/>
+        <v>-2.8093553999999994</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="15"/>
-        <v>-2.5537040586000006</v>
+        <f t="shared" si="5"/>
+        <v>-2.5537040585999993</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="15"/>
-        <v>-2.3213169892674008</v>
+        <f t="shared" si="5"/>
+        <v>-2.3213169892673995</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="15"/>
-        <v>-2.1100771432440673</v>
+        <f t="shared" si="5"/>
+        <v>-2.1100771432440664</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="15"/>
-        <v>-1.9180601232088574</v>
+        <f t="shared" si="5"/>
+        <v>-1.9180601232088563</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="15"/>
-        <v>-1.7435166519968517</v>
+        <f t="shared" si="5"/>
+        <v>-1.7435166519968504</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="15"/>
-        <v>-1.584856636665138</v>
+        <f t="shared" si="5"/>
+        <v>-1.5848566366651371</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="15"/>
-        <v>-1.4406346827286103</v>
+        <f t="shared" si="5"/>
+        <v>-1.4406346827286098</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="15"/>
-        <v>-1.3095369266003067</v>
+        <f t="shared" si="5"/>
+        <v>-1.3095369266003063</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="15"/>
-        <v>-1.1903690662796789</v>
+        <f t="shared" si="5"/>
+        <v>-1.1903690662796782</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:Q20" si="16">+F20*G14/F14</f>
-        <v>79.8</v>
+        <f t="shared" ref="G20:Q20" si="6">+F20*G14/F14</f>
+        <v>84.55</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="16"/>
-        <v>75.809999999999988</v>
+        <f t="shared" si="6"/>
+        <v>80.322500000000005</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="16"/>
-        <v>72.019499999999979</v>
+        <f t="shared" si="6"/>
+        <v>76.306374999999989</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="16"/>
-        <v>68.418524999999974</v>
+        <f t="shared" si="6"/>
+        <v>72.491056249999986</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="16"/>
-        <v>64.997598749999966</v>
+        <f t="shared" si="6"/>
+        <v>68.8665034375</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="16"/>
-        <v>61.747718812499969</v>
+        <f t="shared" si="6"/>
+        <v>65.423178265624998</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="16"/>
-        <v>58.660332871874971</v>
+        <f t="shared" si="6"/>
+        <v>62.15201935234375</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="16"/>
-        <v>55.727316228281225</v>
+        <f t="shared" si="6"/>
+        <v>59.044418384726569</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="16"/>
-        <v>52.94095041686716</v>
+        <f t="shared" si="6"/>
+        <v>56.09219746549023</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="16"/>
-        <v>50.293902896023802</v>
+        <f t="shared" si="6"/>
+        <v>53.287587592215729</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="16"/>
-        <v>47.779207751222607</v>
+        <f t="shared" si="6"/>
+        <v>50.623208212604936</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1">
         <v>-6</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:Q21" si="17">+F21*G15/F15</f>
+        <f t="shared" ref="G21:Q21" si="7">+F21*G15/F15</f>
         <v>-6</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
         <v>-1.47</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ref="G22:Q22" si="18">+F22*G16/F16</f>
+        <f t="shared" ref="G22:Q22" si="8">+F22*G16/F16</f>
         <v>-1.47</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>-1.47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1">
         <v>-72.099999999999994</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:Q23" si="19">+F23*G17/F17</f>
+        <f t="shared" ref="G23:Q23" si="9">+F23*G17/F17</f>
         <v>-65.538899999999984</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="19"/>
-        <v>-59.574860099999995</v>
+        <f t="shared" si="9"/>
+        <v>-59.574860099999981</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>-54.153547830899988</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="19"/>
-        <v>-49.225574978288094</v>
+        <f t="shared" si="9"/>
+        <v>-49.225574978288087</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>-44.746047655263872</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="19"/>
-        <v>-40.674157318634869</v>
+        <f t="shared" si="9"/>
+        <v>-40.674157318634855</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="19"/>
-        <v>-36.972809002639089</v>
+        <f t="shared" si="9"/>
+        <v>-36.972809002639082</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>-33.608283383398927</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>-30.549929595509631</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="19"/>
-        <v>-27.769886002318248</v>
+        <f t="shared" si="9"/>
+        <v>-27.769886002318255</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="19"/>
-        <v>-25.242826376107285</v>
+        <f t="shared" si="9"/>
+        <v>-25.242826376107288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1">
         <v>-10</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:Q24" si="20">+F24*G18/F18</f>
+        <f t="shared" ref="G24:Q24" si="10">+F24*G18/F18</f>
         <v>-9.9</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1">
         <v>-3.4</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:Q25" si="21">+F25*G19/F19</f>
+        <f t="shared" ref="G25:Q25" si="11">+F25*G19/F19</f>
         <v>-3.0905999999999998</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="21"/>
-        <v>-2.8093554000000007</v>
+        <f t="shared" si="11"/>
+        <v>-2.8093553999999994</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="21"/>
-        <v>-2.5537040586000006</v>
+        <f t="shared" si="11"/>
+        <v>-2.5537040585999993</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="21"/>
-        <v>-2.3213169892674008</v>
+        <f t="shared" si="11"/>
+        <v>-2.3213169892673995</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="21"/>
-        <v>-2.1100771432440673</v>
+        <f t="shared" si="11"/>
+        <v>-2.1100771432440664</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="21"/>
-        <v>-1.9180601232088577</v>
+        <f t="shared" si="11"/>
+        <v>-1.9180601232088563</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="21"/>
-        <v>-1.7435166519968519</v>
+        <f t="shared" si="11"/>
+        <v>-1.7435166519968504</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="21"/>
-        <v>-1.5848566366651382</v>
+        <f t="shared" si="11"/>
+        <v>-1.5848566366651371</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="21"/>
-        <v>-1.4406346827286105</v>
+        <f t="shared" si="11"/>
+        <v>-1.4406346827286098</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="21"/>
-        <v>-1.309536926600307</v>
+        <f t="shared" si="11"/>
+        <v>-1.3095369266003063</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="21"/>
-        <v>-1.1903690662796791</v>
+        <f t="shared" si="11"/>
+        <v>-1.1903690662796782</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1">
         <v>92.3</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:Q26" si="22">+F26*G20/F20</f>
-        <v>87.685000000000002</v>
+        <f t="shared" ref="G26:Q26" si="12">+F26*G20/F20</f>
+        <v>87.684999999999988</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>83.300749999999994</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>79.135712499999983</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="22"/>
-        <v>75.178926874999988</v>
+        <f t="shared" si="12"/>
+        <v>75.178926874999974</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="22"/>
-        <v>71.419980531249976</v>
+        <f t="shared" si="12"/>
+        <v>71.41998053124999</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="22"/>
-        <v>67.848981504687472</v>
+        <f t="shared" si="12"/>
+        <v>67.848981504687487</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>64.456532429453105</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>61.233705807980456</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="22"/>
-        <v>58.17202051758143</v>
+        <f t="shared" si="12"/>
+        <v>58.172020517581423</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="22"/>
-        <v>55.263419491702351</v>
+        <f t="shared" si="12"/>
+        <v>55.263419491702365</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="22"/>
-        <v>52.500248517117228</v>
+        <f t="shared" si="12"/>
+        <v>52.500248517117242</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1">
         <v>-21</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27:Q27" si="23">+F27*G21/F21</f>
+        <f t="shared" ref="G27:Q27" si="13">+F27*G21/F21</f>
         <v>-21</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1">
         <v>-1.47</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ref="G28:Q28" si="24">+F28*G22/F22</f>
+        <f t="shared" ref="G28:Q28" si="14">+F28*G22/F22</f>
         <v>-1.47</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>-1.47</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1">
         <v>-72.099999999999994</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:Q29" si="25">+F29*G23/F23</f>
+        <f t="shared" ref="G29:Q29" si="15">+F29*G23/F23</f>
         <v>-65.538899999999984</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="25"/>
-        <v>-59.574860099999995</v>
+        <f t="shared" si="15"/>
+        <v>-59.574860099999981</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>-54.153547830899988</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>-49.225574978288087</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="25"/>
-        <v>-44.746047655263865</v>
+        <f t="shared" si="15"/>
+        <v>-44.746047655263872</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="25"/>
-        <v>-40.674157318634862</v>
+        <f t="shared" si="15"/>
+        <v>-40.674157318634855</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>-36.972809002639082</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="25"/>
-        <v>-33.60828338339892</v>
+        <f t="shared" si="15"/>
+        <v>-33.608283383398927</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="25"/>
-        <v>-30.549929595509628</v>
+        <f t="shared" si="15"/>
+        <v>-30.549929595509635</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="25"/>
-        <v>-27.769886002318245</v>
+        <f t="shared" si="15"/>
+        <v>-27.769886002318259</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="25"/>
-        <v>-25.242826376107281</v>
+        <f t="shared" si="15"/>
+        <v>-25.242826376107292</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1">
         <v>-10</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ref="G30:Q30" si="26">+F30*G24/F24</f>
+        <f t="shared" ref="G30:Q30" si="16">+F30*G24/F24</f>
         <v>-9.9</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1">
         <v>-3.4</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" ref="G31:Q31" si="27">+F31*G25/F25</f>
+        <f t="shared" ref="G31:Q31" si="17">+F31*G25/F25</f>
         <v>-3.0905999999999998</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="27"/>
-        <v>-2.8093554000000007</v>
+        <f t="shared" si="17"/>
+        <v>-2.8093553999999994</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="27"/>
-        <v>-2.5537040586000006</v>
+        <f t="shared" si="17"/>
+        <v>-2.5537040585999993</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="27"/>
-        <v>-2.3213169892674008</v>
+        <f t="shared" si="17"/>
+        <v>-2.3213169892673995</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="27"/>
-        <v>-2.1100771432440673</v>
+        <f t="shared" si="17"/>
+        <v>-2.1100771432440664</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.9180601232088577</v>
+        <f t="shared" si="17"/>
+        <v>-1.9180601232088563</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.7435166519968519</v>
+        <f t="shared" si="17"/>
+        <v>-1.7435166519968504</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.5848566366651382</v>
+        <f t="shared" si="17"/>
+        <v>-1.5848566366651371</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.4406346827286105</v>
+        <f t="shared" si="17"/>
+        <v>-1.4406346827286098</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.309536926600307</v>
+        <f t="shared" si="17"/>
+        <v>-1.3095369266003063</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="27"/>
-        <v>-1.1903690662796791</v>
+        <f t="shared" si="17"/>
+        <v>-1.1903690662796782</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -7839,16 +7729,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7862,10 +7752,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -7882,10 +7772,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/SensitivityAnalisys/CF_G_2023_3_FIIUUP.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_3_FIIUUP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676449D-14AD-4DE9-88E2-478DB8515C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03B9304-58D3-4E19-8018-855267813CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54300" yWindow="0" windowWidth="25800" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3042,40 +3042,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80.322500000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76.306374999999989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.491056249999986</c:v>
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.615000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.734250000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.047537500000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.8665034375</c:v>
+                  <c:v>66.545160625000022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.423178265624998</c:v>
+                  <c:v>63.217902593750019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.15201935234375</c:v>
+                  <c:v>60.057007464062522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.044418384726569</c:v>
+                  <c:v>57.054157090859398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.09219746549023</c:v>
+                  <c:v>54.201449236316414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.287587592215729</c:v>
+                  <c:v>51.491376774500601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.623208212604936</c:v>
+                  <c:v>48.916807935775566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3853,40 +3853,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>92.3</c:v>
+                  <c:v>88.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.684999999999988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.300749999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.135712499999983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.178926874999974</c:v>
+                  <c:v>83.884999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.690749999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.706212499999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.920901874999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.41998053124999</c:v>
+                  <c:v>68.324856781250006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.848981504687487</c:v>
+                  <c:v>64.9086139421875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.456532429453105</c:v>
+                  <c:v>61.66318324507813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.233705807980456</c:v>
+                  <c:v>58.580024082824224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.172020517581423</c:v>
+                  <c:v>55.651022878682994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.263419491702365</c:v>
+                  <c:v>52.868471734748852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.500248517117242</c:v>
+                  <c:v>50.225048148011403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5773,8 +5773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8FC3-4B20-424B-A44D-77DCF1F6F0A1}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6858,51 +6858,51 @@
         <v>25</v>
       </c>
       <c r="F20" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ref="G20:Q20" si="6">+F20*G14/F14</f>
-        <v>84.55</v>
+        <v>81.7</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="6"/>
-        <v>80.322500000000005</v>
+        <v>77.615000000000009</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="6"/>
-        <v>76.306374999999989</v>
+        <v>73.734250000000003</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="6"/>
-        <v>72.491056249999986</v>
+        <v>70.047537500000004</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="6"/>
-        <v>68.8665034375</v>
+        <v>66.545160625000022</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="6"/>
-        <v>65.423178265624998</v>
+        <v>63.217902593750019</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="6"/>
-        <v>62.15201935234375</v>
+        <v>60.057007464062522</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="6"/>
-        <v>59.044418384726569</v>
+        <v>57.054157090859398</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="6"/>
-        <v>56.09219746549023</v>
+        <v>54.201449236316414</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="6"/>
-        <v>53.287587592215729</v>
+        <v>51.491376774500601</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="6"/>
-        <v>50.623208212604936</v>
+        <v>48.916807935775566</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -7236,51 +7236,51 @@
         <v>41</v>
       </c>
       <c r="F26" s="1">
-        <v>92.3</v>
+        <v>88.3</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ref="G26:Q26" si="12">+F26*G20/F20</f>
-        <v>87.684999999999988</v>
+        <v>83.884999999999991</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="12"/>
-        <v>83.300749999999994</v>
+        <v>79.690749999999994</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="12"/>
-        <v>79.135712499999983</v>
+        <v>75.706212499999992</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="12"/>
-        <v>75.178926874999974</v>
+        <v>71.920901874999998</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="12"/>
-        <v>71.41998053124999</v>
+        <v>68.324856781250006</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="12"/>
-        <v>67.848981504687487</v>
+        <v>64.9086139421875</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="12"/>
-        <v>64.456532429453105</v>
+        <v>61.66318324507813</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="12"/>
-        <v>61.233705807980456</v>
+        <v>58.580024082824224</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="12"/>
-        <v>58.172020517581423</v>
+        <v>55.651022878682994</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="12"/>
-        <v>55.263419491702365</v>
+        <v>52.868471734748852</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="12"/>
-        <v>52.500248517117242</v>
+        <v>50.225048148011403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
